--- a/Brief/Modèle-audit-SEO.xlsx
+++ b/Brief/Modèle-audit-SEO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Documents\GitHub\Projet 4-La Panthere\Projet-4-La-Panthere\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Documents\GitHub\Projet 4-La Panthere\Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4239FE6-DA87-4DB4-8B3C-073C71A54A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11227CD6-AD5F-4C6D-8BB3-C38279CB2893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Catégorie</t>
   </si>
@@ -85,6 +85,132 @@
   </si>
   <si>
     <t>Conserver un nombre de caractères entre 140 et 160 pour que la description apparaisse entièrement.</t>
+  </si>
+  <si>
+    <t>Balise Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre le nom de la société et le sujet  de la page dans la balise title. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout du nom de l'agence dans la balise title </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La balise était vide, elle ne permettait pas aux utilisateurs de voir le titre de la page dans les resultats de recherche du navigateur. Le nom de la société n'apparait pas non plus dans l'onglet de navigation. </t>
+  </si>
+  <si>
+    <t>https://optimiz.me/balise-title-2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO </t>
+  </si>
+  <si>
+    <t>Texte caché</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du texte est caché (texte blanc sur fond blanc), cette technique de référencement était très utilisée, mais elle est aujoud'hui considérée comme abusive et peut être sanctionnée par les navigateur. </t>
+  </si>
+  <si>
+    <t>Eviter de dissimuler volontairement du contenu pour optimiser le référencement.</t>
+  </si>
+  <si>
+    <t>supression des parties concernées.</t>
+  </si>
+  <si>
+    <t>https://www.blogdumoderateur.com/google-techniques-interdites-spam/</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>Nom de page</t>
+  </si>
+  <si>
+    <t>Nommer correctement les pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom de la page de contact non renseigné dans le menu, ce qui rend difficile la navigation sur le site. </t>
+  </si>
+  <si>
+    <t>Modification du nom de la page.</t>
+  </si>
+  <si>
+    <t>Balise Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le header est placé dans le contenu principal de la page, ce qui ne favorise pas un bon référencement. </t>
+  </si>
+  <si>
+    <t>Utilisation des balises &lt;header&gt; pour ce type de contenu.</t>
+  </si>
+  <si>
+    <t>Placer l'ID bloc0 dans une balise &lt;header&gt;</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/advanced/guidelines/webmaster-guidelines?hl=fr&amp;visit_id=637927116842497995-3200685215&amp;rd=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu sur la page contact pour permettre le retour à la page principale. </t>
+  </si>
+  <si>
+    <t>Taille paragraphes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les paragaphes présentent des polices de caractères trop petites donc peu lisibles, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S'assurer de la bonne lisibilité des contenus, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passage d'une police 11px a 16px </t>
+  </si>
+  <si>
+    <t>Paragraphe sur fond translucide</t>
+  </si>
+  <si>
+    <t>Les textes présent dans le bloc numero 3 sont présentés sur un fond avec une opacité a 0,7 ce qui rend difficile la lecture du contenu.</t>
+  </si>
+  <si>
+    <t>Éviter de mettre du texte sur des fonds a opacité reduite lorsqu'une image est en arrière plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification du fond et passage à une  opacité complète. </t>
+  </si>
+  <si>
+    <t>Textes sous forme d'image</t>
+  </si>
+  <si>
+    <t>Certains textes sont des images, ce qui perturbe le référencement de la page.</t>
+  </si>
+  <si>
+    <t>Utiliser des balises de textes et des balises H.</t>
+  </si>
+  <si>
+    <t>Transformer les images en texte.</t>
+  </si>
+  <si>
+    <t>Balises alt des images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certaines balises ne sont pas pertinentes, et/ou contiennent trop de mots clé. Ex : le texte alt du logo ne donne même pas le nom de la société et la localisation est fausse. </t>
+  </si>
+  <si>
+    <t>https://www.redacteur.com/blog/seo-balise-alt-images/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre en place des textes alternatifs pertinant et courts. </t>
+  </si>
+  <si>
+    <t>description claire et concise. Eviter les accumulations de mots clés.</t>
+  </si>
+  <si>
+    <t>https://blog.hubspot.fr/marketing/balises-semantiques</t>
+  </si>
+  <si>
+    <t>http://www.digitaleyemedia.com/seo-tips/seo-101-images-vs-text-which-works-best</t>
+  </si>
+  <si>
+    <t>https://www.redevolution.com/blog/white-text-on-a-white-background/</t>
   </si>
 </sst>
 </file>
@@ -169,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,6 +313,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -408,16 +537,17 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="114.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="6" customWidth="1"/>
     <col min="5" max="5" width="39.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.109375" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -425,7 +555,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -471,7 +601,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -491,7 +621,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -507,35 +637,174 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="7"/>
+    <row r="5" spans="1:26" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="7"/>
+    <row r="6" spans="1:26" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="7"/>
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="7"/>
+    <row r="8" spans="1:26" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="7"/>
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
+    <row r="10" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
+    <row r="11" spans="1:26" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
+    <row r="13" spans="1:26" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
+    <row r="14" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
@@ -1529,8 +1798,15 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{994CEF19-85BD-4A0A-BE23-FD2E468BA6F2}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{80FEB1CF-4DA4-43AF-A0D1-8D230CEC7D70}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{E7172B7C-0651-43A4-967E-CFF3E725BCFE}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{CD216F31-8A14-4D68-AB16-6C19F628DCFE}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{CE3A28DB-ECCE-4F18-BF9C-1F7FC9440164}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{0A451A2E-98F0-4446-BAF5-61EE847B08E9}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{FB08C87A-24E1-4F5E-B592-78A2DA0E7F28}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{6F96294A-95FD-4CCD-B4F0-FF2DAC53A959}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{50D6A9EF-609D-4FA8-9A11-CB2475F9E02B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Brief/Modèle-audit-SEO.xlsx
+++ b/Brief/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Documents\GitHub\Projet 4-La Panthere\Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11227CD6-AD5F-4C6D-8BB3-C38279CB2893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E91AE4-1FE5-479B-B280-B957B0DA8518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="2280" windowWidth="33750" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Catégorie</t>
   </si>
@@ -211,6 +211,33 @@
   </si>
   <si>
     <t>https://www.redevolution.com/blog/white-text-on-a-white-background/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité </t>
+  </si>
+  <si>
+    <t>Couleurs textes sur fond orange</t>
+  </si>
+  <si>
+    <t>Les textes sont difficiles à lire sur certains fonds en particulier sur les fonds orange et les images.</t>
+  </si>
+  <si>
+    <t>Utiliser des couleurs complementaires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifications des couleurs des textes concernés. </t>
+  </si>
+  <si>
+    <t>Modification des filtres sur les images</t>
+  </si>
+  <si>
+    <t>Les filtres sur les images rendent les textes difficiles à lire</t>
+  </si>
+  <si>
+    <t>utiliser des textures plus simples pour ameliorer la lisibilité des contenus</t>
+  </si>
+  <si>
+    <t>modification des filtres.</t>
   </si>
 </sst>
 </file>
@@ -537,7 +564,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -806,10 +833,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
+    <row r="15" spans="1:26" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Brief/Modèle-audit-SEO.xlsx
+++ b/Brief/Modèle-audit-SEO.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Documents\GitHub\Projet 4-La Panthere\Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E91AE4-1FE5-479B-B280-B957B0DA8518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B17CC03-49A2-4002-B8DA-ACF773F69A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="2280" windowWidth="33750" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>Catégorie</t>
   </si>
@@ -238,6 +239,27 @@
   </si>
   <si>
     <t>modification des filtres.</t>
+  </si>
+  <si>
+    <t>Textes dans images</t>
+  </si>
+  <si>
+    <t>Certains textes sont des images, en plus des problèmes de SEO, certaines personnes utilisant des systemes assistés de lecture ou de navigations peuvent ne pas profiter de ces textes.</t>
+  </si>
+  <si>
+    <t>Integrer les textes au site sans les integrer dans des images.</t>
+  </si>
+  <si>
+    <t>Taille des elements de menu</t>
+  </si>
+  <si>
+    <t>Les elements de menu ne sont pas mis en avant par leur police de caractère, ou leur taille,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detacher ces elements du contenu de la page pour que les utilisateurs comprennent de suite quels sont les elements de navigation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmenter la taille de la police + uppercase + bold </t>
   </si>
 </sst>
 </file>
@@ -564,7 +586,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -867,22 +889,54 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Brief/Modèle-audit-SEO.xlsx
+++ b/Brief/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Documents\GitHub\Projet 4-La Panthere\Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B17CC03-49A2-4002-B8DA-ACF773F69A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6CE035-B645-4C98-A30A-972373DB7992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Catégorie</t>
   </si>
@@ -260,6 +259,21 @@
   </si>
   <si>
     <t xml:space="preserve">Augmenter la taille de la police + uppercase + bold </t>
+  </si>
+  <si>
+    <t>Optimisation</t>
+  </si>
+  <si>
+    <t>images trop lourdes</t>
+  </si>
+  <si>
+    <t>Certaines images sont dans des formats trop lourds pour leur utilisation sur le site et peuvent être optimisés</t>
+  </si>
+  <si>
+    <t>Utiliser des formats dédiés au web pour optimiser les temps de chargement</t>
+  </si>
+  <si>
+    <t>utilisation du format WEBp et SVG pour les images concernées</t>
   </si>
 </sst>
 </file>
@@ -585,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -923,9 +937,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Brief/Modèle-audit-SEO.xlsx
+++ b/Brief/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Documents\GitHub\Projet 4-La Panthere\Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6CE035-B645-4C98-A30A-972373DB7992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BDA13C-5337-4B84-884D-8D679337DE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>Catégorie</t>
   </si>
@@ -274,6 +274,33 @@
   </si>
   <si>
     <t>utilisation du format WEBp et SVG pour les images concernées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 2 </t>
+  </si>
+  <si>
+    <t>Title Page 2</t>
+  </si>
+  <si>
+    <t>`Le titre de la page n'est pas le bon.</t>
+  </si>
+  <si>
+    <t>Les titres des pages doivent guider l'utilisateur et lui indiquer ou il se trouve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mention contact </t>
+  </si>
+  <si>
+    <t>Favicon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de favicon sur la page 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le favicon permet a lútilisateur de savoir en un coup d'œil sur quel site il se trouve. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre le favicon sur toutes les pages. </t>
   </si>
 </sst>
 </file>
@@ -600,7 +627,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -954,19 +981,51 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Brief/Modèle-audit-SEO.xlsx
+++ b/Brief/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Documents\GitHub\Projet 4-La Panthere\Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BDA13C-5337-4B84-884D-8D679337DE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0210ED-AE68-4E4E-8D01-4B6819693CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>Catégorie</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t xml:space="preserve">Mettre le favicon sur toutes les pages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimisation </t>
+  </si>
+  <si>
+    <t>SRC set</t>
+  </si>
+  <si>
+    <t>Correction des ratio img</t>
   </si>
 </sst>
 </file>
@@ -626,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1023,10 +1032,20 @@
     </row>
     <row r="24" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>90</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Brief/Modèle-audit-SEO.xlsx
+++ b/Brief/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Documents\GitHub\Projet 4-La Panthere\Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0210ED-AE68-4E4E-8D01-4B6819693CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA6EA41-DF42-4F17-96E9-3D2D113B03AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t>Catégorie</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Correction des ratio img</t>
+  </si>
+  <si>
+    <t>Fichier robot,txt</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1046,7 +1049,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
